--- a/galleryapp/gallery-common/gallery-code.xlsx
+++ b/galleryapp/gallery-common/gallery-code.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
@@ -102,14 +102,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cherry.example.common.CodeName</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>exampleapp/example-common</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>sort_by</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -204,6 +196,12 @@
   <si>
     <t>##ATTR</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cherry.gallery.common.CodeName</t>
+  </si>
+  <si>
+    <t>galleryapp/gallery-common</t>
   </si>
 </sst>
 </file>
@@ -700,7 +698,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" outlineLevel="1">
@@ -711,18 +709,18 @@
         <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" outlineLevel="1">
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" outlineLevel="1"/>
@@ -776,16 +774,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -793,16 +791,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -810,16 +808,16 @@
         <v>3</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -827,16 +825,16 @@
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -844,16 +842,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -861,16 +859,16 @@
         <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -878,16 +876,16 @@
         <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -895,16 +893,16 @@
         <v>8</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
